--- a/TB清单.xlsx
+++ b/TB清单.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>清单</t>
   </si>
@@ -40,14 +40,14 @@
     <t>链接</t>
   </si>
   <si>
-    <t>BOM表</t>
+    <t>BOM</t>
   </si>
   <si>
     <t>0603电阻</t>
   </si>
   <si>
     <t>22
-100个</t>
+50个</t>
   </si>
   <si>
     <t>手机淘宝分享购物车连接——&gt;</t>
@@ -81,52 +81,47 @@
   </si>
   <si>
     <t>1K
-100个</t>
+50个</t>
   </si>
   <si>
     <t>所有的连接仅供参考，可自行选购</t>
   </si>
   <si>
     <t>1.5K
-100个</t>
+50个</t>
   </si>
   <si>
     <t>4.7K
-100个</t>
+50个</t>
+  </si>
+  <si>
+    <t>10K
+50个</t>
+  </si>
+  <si>
+    <t>0603电容</t>
+  </si>
+  <si>
+    <t>10UF
+50个</t>
+  </si>
+  <si>
+    <t>100NF
+200个</t>
+  </si>
+  <si>
+    <t>0603排阻</t>
   </si>
   <si>
     <t>10K
 100个</t>
   </si>
   <si>
-    <t>0603电容</t>
-  </si>
-  <si>
-    <t>10UF
-100个</t>
-  </si>
-  <si>
-    <t>100NF
-100个</t>
-  </si>
-  <si>
-    <t>0603排阻</t>
-  </si>
-  <si>
-    <t>10K
-50个</t>
-  </si>
-  <si>
-    <t>SOT-23-3
-CJ2302
-线性稳压器</t>
-  </si>
-  <si>
     <t>74HC165D
 移位寄存器</t>
   </si>
   <si>
-    <t>STM32F03CBT6
+    <t>STM32F103CBT6
 主控</t>
   </si>
   <si>
@@ -139,17 +134,52 @@
     <t>RJ45网口</t>
   </si>
   <si>
+    <t>全塑单口带灯</t>
+  </si>
+  <si>
+    <t>有金属外壳的网口会宽一些，外壳模型默认适配全塑</t>
+  </si>
+  <si>
     <t>Type-C母座</t>
   </si>
   <si>
     <t>16P</t>
   </si>
   <si>
-    <t>BOM表的12P是不对的，一般没有12P的Type-C母座</t>
+    <t>共计16个针脚，12个焊盘</t>
+  </si>
+  <si>
+    <t>FPC母座</t>
+  </si>
+  <si>
+    <t>FH34SRJ-4S 0.5间距</t>
+  </si>
+  <si>
+    <t>75个轴座共
+需要11+10+6*3共99个</t>
+  </si>
+  <si>
+    <t>THD0510-5S 0.5间距</t>
+  </si>
+  <si>
+    <t>需要16*3共48个
+这个在立创商城买，50个</t>
+  </si>
+  <si>
+    <t>FH19C-6S 0.5间距</t>
+  </si>
+  <si>
+    <t>需要9+9+8*3共42个
+买连接座花了100块，离大大大谱</t>
   </si>
   <si>
     <t>CSTNE8M00GH5C000R0
 晶振</t>
+  </si>
+  <si>
+    <t>SOT-23-3
+CJ2310
+线性稳压器</t>
   </si>
   <si>
     <t>SOT-25
@@ -157,33 +187,19 @@
 线性稳压器</t>
   </si>
   <si>
-    <t>轴座</t>
-  </si>
-  <si>
-    <t>70PCS</t>
-  </si>
-  <si>
-    <t>FPC母座</t>
-  </si>
-  <si>
-    <t>4P
-10个</t>
-  </si>
-  <si>
-    <t>5P
-10个</t>
-  </si>
-  <si>
-    <t>6P
-10个</t>
-  </si>
-  <si>
-    <t>3528LED</t>
-  </si>
-  <si>
-    <t>RGB
-4脚共阳
-50个</t>
+    <t>热插拔轴座</t>
+  </si>
+  <si>
+    <t>70个</t>
+  </si>
+  <si>
+    <t>3528幻彩反贴LED</t>
+  </si>
+  <si>
+    <t>50只内置IC可编程</t>
+  </si>
+  <si>
+    <t>20只内置IC可编程</t>
   </si>
   <si>
     <t>PCB</t>
@@ -192,11 +208,19 @@
     <t>主控板</t>
   </si>
   <si>
-    <t>JLC免费打板3次即可
-建议在本月底和下月初下单</t>
+    <t>FR-4板材、无铅喷锡、板厚1.6mm、绿油白字、铜厚1OZ</t>
+  </si>
+  <si>
+    <t>捷配特价，一般都会打3给4</t>
   </si>
   <si>
     <t>扩展板</t>
+  </si>
+  <si>
+    <t>轴板</t>
+  </si>
+  <si>
+    <t>板厚1.2</t>
   </si>
   <si>
     <t>外壳</t>
@@ -224,39 +248,87 @@
     <t>支撑板</t>
   </si>
   <si>
+    <t>外壳总价↓</t>
+  </si>
+  <si>
     <t>配件</t>
   </si>
   <si>
     <t>键帽</t>
   </si>
   <si>
+    <t>XDA</t>
+  </si>
+  <si>
     <t>轴体</t>
   </si>
   <si>
-    <t>灰木轴
-70个</t>
+    <t>青轴
+60个</t>
   </si>
   <si>
     <t>RJ45连接线</t>
   </si>
   <si>
-    <t>8P
-0.2M</t>
+    <t>8P</t>
   </si>
   <si>
     <t>FPC排线</t>
   </si>
   <si>
-    <t>4P</t>
-  </si>
-  <si>
-    <t>5P</t>
-  </si>
-  <si>
-    <t>6P</t>
-  </si>
-  <si>
-    <t>黄铜螺母</t>
+    <t>4P 0.5间距</t>
+  </si>
+  <si>
+    <t>5P 0.5间距</t>
+  </si>
+  <si>
+    <t>6P 0.5间距</t>
+  </si>
+  <si>
+    <t>斜纹滚花黄铜螺母</t>
+  </si>
+  <si>
+    <t>M3*3*5</t>
+  </si>
+  <si>
+    <t>薄平头螺钉</t>
+  </si>
+  <si>
+    <t>M3*6</t>
+  </si>
+  <si>
+    <t>脚垫</t>
+  </si>
+  <si>
+    <t>工具</t>
+  </si>
+  <si>
+    <t>电烙铁</t>
+  </si>
+  <si>
+    <t>注意焊接时带好口罩、手套</t>
+  </si>
+  <si>
+    <t>焊锡</t>
+  </si>
+  <si>
+    <t>为了你的健康和保护环境，请使用无铅锡</t>
+  </si>
+  <si>
+    <t>台锯或角磨机</t>
+  </si>
+  <si>
+    <t>你也可以尝试使用铁皮剪。
+切割会产生大量烟尘，有铅烟尘严重危害健康！</t>
+  </si>
+  <si>
+    <t>热熔胶</t>
+  </si>
+  <si>
+    <t>DAPLink</t>
+  </si>
+  <si>
+    <t>开源烧录器</t>
   </si>
 </sst>
 </file>
@@ -310,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -319,9 +391,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="8"/>
       </right>
@@ -367,6 +437,17 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="8"/>
       </right>
@@ -412,6 +493,17 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="8"/>
       </right>
@@ -457,6 +549,17 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="8"/>
       </right>
@@ -469,6 +572,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
@@ -499,6 +628,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
@@ -529,6 +671,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
@@ -559,6 +714,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
@@ -577,11 +745,215 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -594,7 +966,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -613,139 +985,214 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -768,6 +1215,8 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffa9a9a9"/>
+      <rgbColor rgb="ff7f7f7f"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1826,7 +2275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:I40"/>
+  <dimension ref="A2:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1876,894 +2325,954 @@
       <c r="H2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="I2" t="s" s="5">
+      <c r="I2" t="s" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="37.15" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="3" ht="40.45" customHeight="1">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="D3" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="D3" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <f>D3*F3+E3</f>
-        <v>2.5</v>
-      </c>
-      <c r="H3" t="s" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="H3" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="I3" t="s" s="10">
+      <c r="I3" t="s" s="12">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="36.35" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" t="s" s="13">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="D4" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="D4" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16">
         <v>1</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="16">
         <f>D4*F4+E4</f>
-        <v>2.5</v>
-      </c>
-      <c r="H4" t="s" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="H4" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" ht="34.35" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" t="s" s="13">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" t="s" s="15">
         <v>16</v>
       </c>
-      <c r="D5" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14">
+      <c r="D5" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16">
         <v>1</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="16">
         <f>D5*F5+E5</f>
-        <v>2.5</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="15"/>
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" ht="34.35" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" t="s" s="13">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="D6" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="D6" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="16">
         <v>1</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="16">
         <f>D6*F6+E6</f>
-        <v>2.5</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="15"/>
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" ht="34.35" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="12"/>
-      <c r="C7" t="s" s="13">
+      <c r="A7" s="19"/>
+      <c r="B7" s="14"/>
+      <c r="C7" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D7" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
+      <c r="D7" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="16">
         <v>1</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="16">
         <f>D7*F7+E7</f>
-        <v>2.5</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="15"/>
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" ht="34.35" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" t="s" s="19">
+      <c r="A8" s="20"/>
+      <c r="B8" t="s" s="21">
         <v>19</v>
       </c>
-      <c r="C8" t="s" s="13">
+      <c r="C8" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="D8" s="14">
-        <v>6</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
+      <c r="D8" s="16">
+        <v>2</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16">
         <v>1</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="16">
         <f>D8*F8+E8</f>
-        <v>6</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" ht="34.35" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="12"/>
-      <c r="C9" t="s" s="13">
+      <c r="A9" s="20"/>
+      <c r="B9" s="14"/>
+      <c r="C9" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="D9" s="14">
-        <v>5</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14">
+      <c r="D9" s="16">
+        <v>2</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="16">
         <f>D9*F9+E9</f>
-        <v>5</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" ht="34.35" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" t="s" s="19">
+      <c r="A10" s="22"/>
+      <c r="B10" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="C10" t="s" s="13">
+      <c r="C10" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="D10" s="14">
-        <v>4</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14">
+      <c r="D10" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16">
         <v>1</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="16">
         <f>D10*F10+E10</f>
-        <v>4</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" ht="46.65" customHeight="1">
-      <c r="A11" s="20"/>
+        <v>3.5</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" ht="34.35" customHeight="1">
+      <c r="A11" s="13"/>
       <c r="B11" t="s" s="21">
         <v>24</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23">
-        <v>5</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="C11" s="17"/>
+      <c r="D11" s="16">
+        <v>0.73</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="16">
+        <v>8</v>
+      </c>
+      <c r="G11" s="16">
+        <f>D11*F11+E11</f>
+        <v>5.84</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" ht="34.35" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" t="s" s="21">
+        <v>25</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="16">
+        <v>13.8</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16">
+        <f>D12*F12+E12</f>
+        <v>13.8</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" ht="22.35" customHeight="1">
+      <c r="A13" s="13"/>
+      <c r="B13" t="s" s="21">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16">
+        <v>2</v>
+      </c>
+      <c r="G13" s="16">
+        <f>D13*F13+E13</f>
+        <v>0.18</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" ht="50.35" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" t="s" s="21">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s" s="15">
+        <v>29</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.62</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="16">
+        <v>2</v>
+      </c>
+      <c r="G14" s="16">
+        <f>D14*F14+E14</f>
+        <v>1.24</v>
+      </c>
+      <c r="H14" t="s" s="15">
+        <v>30</v>
+      </c>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" ht="36.95" customHeight="1">
+      <c r="A15" s="13"/>
+      <c r="B15" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s" s="26">
+        <v>32</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0.32</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="27">
+        <v>1</v>
+      </c>
+      <c r="G15" s="27">
+        <f>D15*F15+E15</f>
+        <v>0.32</v>
+      </c>
+      <c r="H15" t="s" s="26">
+        <v>33</v>
+      </c>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" ht="36.95" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" t="s" s="30">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s" s="31">
+        <v>35</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0.55</v>
+      </c>
+      <c r="E16" s="32">
+        <v>10</v>
+      </c>
+      <c r="F16" s="32">
+        <v>99</v>
+      </c>
+      <c r="G16" s="32">
+        <f>D16*F16+E16</f>
+        <v>64.45</v>
+      </c>
+      <c r="H16" t="s" s="31">
+        <v>36</v>
+      </c>
+      <c r="I16" s="33"/>
+    </row>
+    <row r="17" ht="62.9" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" t="s" s="15">
+        <v>37</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="16">
+        <v>8</v>
+      </c>
+      <c r="F17" s="16">
+        <v>50</v>
+      </c>
+      <c r="G17" s="16">
+        <f>D17*F17+E17</f>
+        <v>33</v>
+      </c>
+      <c r="H17" t="s" s="15">
+        <v>38</v>
+      </c>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" ht="63.2" customHeight="1">
+      <c r="A18" s="13"/>
+      <c r="B18" s="34"/>
+      <c r="C18" t="s" s="26">
+        <v>39</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="27">
         <v>0</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F18" s="27">
+        <v>42</v>
+      </c>
+      <c r="G18" s="27">
+        <f>D18*F18+E18</f>
+        <v>21</v>
+      </c>
+      <c r="H18" t="s" s="26">
+        <v>40</v>
+      </c>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" ht="46.65" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" t="s" s="30">
+        <v>41</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="32">
         <v>1</v>
       </c>
-      <c r="G11" s="23">
-        <f>D11*F11+E11</f>
-        <v>5</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" ht="34.65" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" t="s" s="25">
-        <v>25</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27">
-        <v>0.73</v>
-      </c>
-      <c r="E12" s="27">
-        <v>0</v>
-      </c>
-      <c r="F12" s="27">
-        <v>8</v>
-      </c>
-      <c r="G12" s="27">
-        <f>D12*F12+E12</f>
-        <v>5.84</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="28"/>
-    </row>
-    <row r="13" ht="34.35" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="14">
-        <v>13.8</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14">
-        <f>D13*F13+E13</f>
-        <v>13.8</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" t="s" s="19">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s" s="13">
-        <v>28</v>
-      </c>
-      <c r="D14" s="14">
-        <v>0.09</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14">
-        <v>2</v>
-      </c>
-      <c r="G14" s="14">
-        <f>D14*F14+E14</f>
-        <v>0.18</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" t="s" s="19">
-        <v>29</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="14">
-        <v>0.62</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>2</v>
-      </c>
-      <c r="G15" s="14">
-        <f>D15*F15+E15</f>
-        <v>1.24</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" ht="51.2" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" t="s" s="21">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s" s="29">
-        <v>31</v>
-      </c>
-      <c r="D16" s="23">
-        <v>0.32</v>
-      </c>
-      <c r="E16" s="23">
-        <v>0</v>
-      </c>
-      <c r="F16" s="23">
-        <v>1</v>
-      </c>
-      <c r="G16" s="23">
-        <f>D16*F16+E16</f>
-        <v>0.32</v>
-      </c>
-      <c r="H16" t="s" s="29">
-        <v>32</v>
-      </c>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" ht="46.65" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" t="s" s="25">
-        <v>33</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27">
-        <v>1.45</v>
-      </c>
-      <c r="E17" s="27">
-        <v>4</v>
-      </c>
-      <c r="F17" s="27">
-        <v>1</v>
-      </c>
-      <c r="G17" s="27">
-        <f>D17*F17+E17</f>
-        <v>5.45</v>
-      </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="18" ht="46.65" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" t="s" s="21">
-        <v>34</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23">
-        <v>2</v>
-      </c>
-      <c r="E18" s="23">
-        <v>0</v>
-      </c>
-      <c r="F18" s="23">
-        <v>2</v>
-      </c>
-      <c r="G18" s="23">
-        <f>D18*F18+E18</f>
-        <v>4</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" ht="23" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" t="s" s="30">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s" s="31">
-        <v>36</v>
-      </c>
-      <c r="D19" s="32">
-        <v>49</v>
-      </c>
-      <c r="E19" s="32">
-        <v>0</v>
-      </c>
+      <c r="E19" s="35"/>
       <c r="F19" s="32">
         <v>1</v>
       </c>
       <c r="G19" s="32">
         <f>D19*F19+E19</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="35"/>
+      <c r="I19" s="33"/>
+    </row>
+    <row r="20" ht="46.35" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" t="s" s="21">
+        <v>42</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="16">
+        <f>D20*F20+E20</f>
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" ht="46.65" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s" s="25">
+        <v>43</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="27">
+        <v>1.6</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="27">
+        <v>2</v>
+      </c>
+      <c r="G21" s="27">
+        <f>D21*F21+E21</f>
+        <v>3.2</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" ht="23" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" t="s" s="36">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s" s="37">
+        <v>45</v>
+      </c>
+      <c r="D22" s="38">
+        <v>27</v>
+      </c>
+      <c r="E22" s="38">
+        <v>4</v>
+      </c>
+      <c r="F22" s="38">
+        <v>1</v>
+      </c>
+      <c r="G22" s="38">
+        <f>D22*F22+E22</f>
+        <v>31</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
+    </row>
+    <row r="23" ht="22.65" customHeight="1">
+      <c r="A23" s="13"/>
+      <c r="B23" t="s" s="36">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s" s="31">
+        <v>47</v>
+      </c>
+      <c r="D23" s="32">
+        <v>12.5</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="32">
+        <v>1</v>
+      </c>
+      <c r="G23" s="32">
+        <f>D23*F23+E23</f>
+        <v>12.5</v>
+      </c>
+      <c r="H23" s="35"/>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" ht="23.15" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="41"/>
+      <c r="C24" t="s" s="42">
+        <v>48</v>
+      </c>
+      <c r="D24" s="43">
+        <v>7</v>
+      </c>
+      <c r="E24" s="44"/>
+      <c r="F24" s="43">
+        <v>1</v>
+      </c>
+      <c r="G24" s="43">
+        <f>D24*F24+E24</f>
+        <v>7</v>
+      </c>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+    </row>
+    <row r="25" ht="23.15" customHeight="1">
+      <c r="A25" t="s" s="7">
         <v>49</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-    </row>
-    <row r="20" ht="34.65" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" t="s" s="25">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s" s="35">
-        <v>38</v>
-      </c>
-      <c r="D20" s="27">
-        <v>1.89</v>
-      </c>
-      <c r="E20" s="27">
+      <c r="B25" t="s" s="8">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="D25" s="10">
+        <v>21</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <f>D25*F25+E25</f>
+        <v>21</v>
+      </c>
+      <c r="H25" t="s" s="9">
+        <v>52</v>
+      </c>
+      <c r="I25" s="46"/>
+    </row>
+    <row r="26" ht="27.7" customHeight="1">
+      <c r="A26" s="13"/>
+      <c r="B26" t="s" s="21">
+        <v>53</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="16">
         <v>0</v>
       </c>
-      <c r="F20" s="27">
-        <v>8</v>
-      </c>
-      <c r="G20" s="27">
-        <f>D20*F20+E20</f>
-        <v>15.12</v>
-      </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" ht="34.35" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" t="s" s="13">
-        <v>39</v>
-      </c>
-      <c r="D21" s="14">
-        <v>2.97</v>
-      </c>
-      <c r="E21" s="14">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14">
-        <v>5</v>
-      </c>
-      <c r="G21" s="14">
-        <f>D21*F21+E21</f>
-        <v>14.85</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" ht="34.65" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="36"/>
-      <c r="C22" t="s" s="29">
-        <v>40</v>
-      </c>
-      <c r="D22" s="23">
-        <v>2.97</v>
-      </c>
-      <c r="E22" s="23">
-        <v>0</v>
-      </c>
-      <c r="F22" s="23">
-        <v>3</v>
-      </c>
-      <c r="G22" s="23">
-        <f>D22*F22+E22</f>
-        <v>8.91</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" ht="49.75" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" t="s" s="37">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s" s="38">
-        <v>42</v>
-      </c>
-      <c r="D23" s="39">
-        <v>11</v>
-      </c>
-      <c r="E23" s="39">
-        <v>0</v>
-      </c>
-      <c r="F23" s="39">
-        <v>2</v>
-      </c>
-      <c r="G23" s="39">
-        <f>D23*F23+E23</f>
-        <v>22</v>
-      </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-    </row>
-    <row r="24" ht="23.15" customHeight="1">
-      <c r="A24" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>5</v>
-      </c>
-      <c r="G24" s="9">
-        <f>D24*F24+E24</f>
-        <v>0</v>
-      </c>
-      <c r="H24" t="s" s="8">
-        <v>45</v>
-      </c>
-      <c r="I24" s="43"/>
-    </row>
-    <row r="25" ht="22.35" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" t="s" s="19">
-        <v>35</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="14">
-        <v>0</v>
-      </c>
-      <c r="E25" s="14">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14">
-        <v>5</v>
-      </c>
-      <c r="G25" s="14">
-        <f>D25*F25+E25</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" ht="23.15" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" t="s" s="44">
-        <v>46</v>
-      </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46">
-        <v>0</v>
-      </c>
-      <c r="E26" s="46">
-        <v>0</v>
-      </c>
-      <c r="F26" s="46">
-        <v>5</v>
-      </c>
-      <c r="G26" s="46">
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="16">
         <f>D26*F26+E26</f>
         <v>0</v>
       </c>
       <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-    </row>
-    <row r="27" ht="37.45" customHeight="1">
-      <c r="A27" t="s" s="6">
-        <v>47</v>
-      </c>
-      <c r="B27" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="C27" t="s" s="8">
-        <v>49</v>
-      </c>
-      <c r="D27" s="9">
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" ht="23.15" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" t="s" s="48">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s" s="49">
+        <v>55</v>
+      </c>
+      <c r="D27" s="43">
+        <v>21</v>
+      </c>
+      <c r="E27" s="44"/>
+      <c r="F27" s="43">
+        <v>1</v>
+      </c>
+      <c r="G27" s="43">
+        <f>D27*F27+E27</f>
+        <v>21</v>
+      </c>
+      <c r="H27" s="50"/>
+      <c r="I27" s="45"/>
+    </row>
+    <row r="28" ht="37.45" customHeight="1">
+      <c r="A28" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s" s="8">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="D28" s="10">
         <v>58.4</v>
       </c>
-      <c r="E27" s="9">
-        <v>0</v>
-      </c>
-      <c r="F27" s="9">
+      <c r="E28" s="11"/>
+      <c r="F28" s="10">
         <v>1</v>
       </c>
-      <c r="G27" s="9">
-        <f>D27*F27+E27</f>
-        <v>58.4</v>
-      </c>
-      <c r="H27" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="I27" s="43"/>
-    </row>
-    <row r="28" ht="36.35" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" t="s" s="19">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s" s="13">
-        <v>51</v>
-      </c>
-      <c r="D28" s="14">
-        <v>58.4</v>
-      </c>
-      <c r="E28" s="14">
-        <v>0</v>
-      </c>
-      <c r="F28" s="14">
-        <v>1</v>
-      </c>
-      <c r="G28" s="14">
+      <c r="G28" s="10">
         <f>D28*F28+E28</f>
         <v>58.4</v>
       </c>
-      <c r="H28" t="s" s="13">
-        <v>52</v>
-      </c>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" ht="22.35" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" t="s" s="19">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s" s="13">
-        <v>49</v>
-      </c>
-      <c r="D29" s="14">
+      <c r="H28" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="I28" s="46"/>
+    </row>
+    <row r="29" ht="36.35" customHeight="1">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" t="s" s="15">
+        <v>60</v>
+      </c>
+      <c r="D29" s="16">
+        <v>58.4</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="16">
+        <v>1</v>
+      </c>
+      <c r="G29" s="16">
+        <f>D29*F29+E29</f>
+        <v>58.4</v>
+      </c>
+      <c r="H29" t="s" s="15">
+        <v>61</v>
+      </c>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" ht="22.35" customHeight="1">
+      <c r="A30" s="13"/>
+      <c r="B30" t="s" s="21">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s" s="15">
+        <v>58</v>
+      </c>
+      <c r="D30" s="16">
         <v>26.86</v>
       </c>
-      <c r="E29" s="14">
-        <v>0</v>
-      </c>
-      <c r="F29" s="14">
+      <c r="E30" s="17"/>
+      <c r="F30" s="16">
         <v>1</v>
       </c>
-      <c r="G29" s="14">
-        <f>D29*F29+E29</f>
-        <v>26.86</v>
-      </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" ht="22.35" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" t="s" s="19">
-        <v>53</v>
-      </c>
-      <c r="C30" t="s" s="13">
-        <v>51</v>
-      </c>
-      <c r="D30" s="14">
-        <v>26.86</v>
-      </c>
-      <c r="E30" s="14">
-        <v>0</v>
-      </c>
-      <c r="F30" s="14">
-        <v>1</v>
-      </c>
-      <c r="G30" s="14">
+      <c r="G30" s="16">
         <f>D30*F30+E30</f>
         <v>26.86</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="15"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18"/>
     </row>
     <row r="31" ht="22.35" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" t="s" s="19">
-        <v>54</v>
-      </c>
-      <c r="C31" t="s" s="13">
-        <v>49</v>
-      </c>
-      <c r="D31" s="14">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" t="s" s="15">
+        <v>60</v>
+      </c>
+      <c r="D31" s="16">
+        <v>26.86</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="16">
+        <v>1</v>
+      </c>
+      <c r="G31" s="16">
+        <f>D31*F31+E31</f>
+        <v>26.86</v>
+      </c>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" ht="22.35" customHeight="1">
+      <c r="A32" s="13"/>
+      <c r="B32" t="s" s="21">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s" s="15">
+        <v>58</v>
+      </c>
+      <c r="D32" s="16">
         <v>6.04</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E32" s="17"/>
+      <c r="F32" s="16">
+        <v>1</v>
+      </c>
+      <c r="G32" s="16">
+        <f>D32*F32+E32</f>
+        <v>6.04</v>
+      </c>
+      <c r="H32" t="s" s="15">
+        <v>64</v>
+      </c>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" ht="23.15" customHeight="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="51"/>
+      <c r="C33" t="s" s="42">
+        <v>60</v>
+      </c>
+      <c r="D33" s="43">
+        <v>5.44</v>
+      </c>
+      <c r="E33" s="44"/>
+      <c r="F33" s="43">
+        <v>1</v>
+      </c>
+      <c r="G33" s="43">
+        <f>D33*F33+E33</f>
+        <v>5.44</v>
+      </c>
+      <c r="H33" s="43">
+        <f>SUM(G28:G33)</f>
+        <v>182</v>
+      </c>
+      <c r="I33" s="45"/>
+    </row>
+    <row r="34" ht="23.5" customHeight="1">
+      <c r="A34" t="s" s="52">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s" s="53">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s" s="54">
+        <v>67</v>
+      </c>
+      <c r="D34" s="55">
+        <v>45</v>
+      </c>
+      <c r="E34" s="56"/>
+      <c r="F34" s="55">
+        <v>1</v>
+      </c>
+      <c r="G34" s="55">
+        <f>D34*F34+E34</f>
+        <v>45</v>
+      </c>
+      <c r="H34" s="56"/>
+      <c r="I34" s="57"/>
+    </row>
+    <row r="35" ht="37" customHeight="1">
+      <c r="A35" s="58"/>
+      <c r="B35" t="s" s="36">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s" s="37">
+        <v>69</v>
+      </c>
+      <c r="D35" s="38">
+        <v>23.7</v>
+      </c>
+      <c r="E35" s="39"/>
+      <c r="F35" s="38">
+        <v>1</v>
+      </c>
+      <c r="G35" s="38">
+        <f>D35*F35+E35</f>
+        <v>23.7</v>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="40"/>
+    </row>
+    <row r="36" ht="23" customHeight="1">
+      <c r="A36" s="59"/>
+      <c r="B36" t="s" s="36">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s" s="37">
+        <v>71</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="38">
+        <v>1</v>
+      </c>
+      <c r="G36" s="38">
+        <f>D36*F36+E36</f>
         <v>0</v>
       </c>
-      <c r="F31" s="14">
-        <v>1</v>
-      </c>
-      <c r="G31" s="14">
-        <f>D31*F31+E31</f>
-        <v>6.04</v>
-      </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" ht="23.15" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="B32" t="s" s="44">
-        <v>54</v>
-      </c>
-      <c r="C32" t="s" s="48">
-        <v>51</v>
-      </c>
-      <c r="D32" s="46">
-        <v>5.44</v>
-      </c>
-      <c r="E32" s="46">
-        <v>0</v>
-      </c>
-      <c r="F32" s="46">
-        <v>1</v>
-      </c>
-      <c r="G32" s="46">
-        <f>D32*F32+E32</f>
-        <v>5.44</v>
-      </c>
-      <c r="H32" s="45"/>
-      <c r="I32" s="47"/>
-    </row>
-    <row r="33" ht="23.15" customHeight="1">
-      <c r="A33" t="s" s="6">
-        <v>55</v>
-      </c>
-      <c r="B33" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="9">
-        <v>39</v>
-      </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="9">
-        <v>1</v>
-      </c>
-      <c r="G33" s="9">
-        <f>D33*F33+E33</f>
-        <v>39</v>
-      </c>
-      <c r="H33" s="42"/>
-      <c r="I33" s="43"/>
-    </row>
-    <row r="34" ht="36.35" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" t="s" s="19">
-        <v>57</v>
-      </c>
-      <c r="C34" t="s" s="13">
-        <v>58</v>
-      </c>
-      <c r="D34" s="14">
-        <v>55</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="14">
-        <v>1</v>
-      </c>
-      <c r="G34" s="14">
-        <f>D34*F34+E34</f>
-        <v>55</v>
-      </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="15"/>
-    </row>
-    <row r="35" ht="32.05" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" t="s" s="19">
-        <v>59</v>
-      </c>
-      <c r="C35" t="s" s="13">
-        <v>60</v>
-      </c>
-      <c r="D35" s="14">
-        <v>1</v>
-      </c>
-      <c r="E35" s="14">
-        <v>2</v>
-      </c>
-      <c r="F35" s="14">
-        <v>1</v>
-      </c>
-      <c r="G35" s="14">
-        <f>D35*F35+E35</f>
-        <v>3</v>
-      </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="15"/>
-    </row>
-    <row r="36" ht="22.35" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" t="s" s="19">
-        <v>61</v>
-      </c>
-      <c r="C36" t="s" s="13">
-        <v>62</v>
-      </c>
-      <c r="D36" s="14">
-        <v>2.49</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="14">
-        <v>4</v>
-      </c>
-      <c r="G36" s="14">
-        <f>D36*F36+E36</f>
-        <v>9.960000000000001</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="15"/>
-    </row>
-    <row r="37" ht="22.35" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" t="s" s="19">
-        <v>61</v>
-      </c>
-      <c r="C37" t="s" s="13">
-        <v>63</v>
-      </c>
-      <c r="D37" s="14">
-        <v>2.09</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="14">
-        <v>3</v>
-      </c>
-      <c r="G37" s="14">
-        <f>D37*F37+E37</f>
-        <v>6.27</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="15"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="60"/>
+    </row>
+    <row r="37" ht="22.65" customHeight="1">
+      <c r="A37" s="61"/>
+      <c r="B37" t="s" s="30">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s" s="31">
+        <v>73</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="33"/>
     </row>
     <row r="38" ht="22.35" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" t="s" s="19">
-        <v>61</v>
-      </c>
-      <c r="C38" t="s" s="13">
-        <v>64</v>
-      </c>
-      <c r="D38" s="14">
-        <v>2.19</v>
-      </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="14">
-        <v>2</v>
-      </c>
-      <c r="G38" s="14">
-        <f>D38*F38+E38</f>
-        <v>4.38</v>
-      </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="15"/>
-    </row>
-    <row r="39" ht="23.15" customHeight="1">
-      <c r="A39" s="17"/>
-      <c r="B39" t="s" s="44">
-        <v>65</v>
-      </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46">
-        <f>D39*F39+E39</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="45"/>
-      <c r="I39" s="47"/>
-    </row>
-    <row r="40" ht="20.85" customHeight="1">
-      <c r="A40" s="49"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="9">
-        <f>SUM(G3:G39)</f>
-        <v>472.82</v>
-      </c>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="14"/>
+      <c r="C38" t="s" s="15">
+        <v>74</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" ht="22.65" customHeight="1">
+      <c r="A39" s="62"/>
+      <c r="B39" s="34"/>
+      <c r="C39" t="s" s="26">
+        <v>75</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="29"/>
+    </row>
+    <row r="40" ht="22.65" customHeight="1">
+      <c r="A40" s="62"/>
+      <c r="B40" t="s" s="30">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s" s="31">
+        <v>77</v>
+      </c>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" ht="22.4" customHeight="1">
+      <c r="A41" s="58"/>
+      <c r="B41" t="s" s="63">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s" s="64">
+        <v>79</v>
+      </c>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="66"/>
+    </row>
+    <row r="42" ht="23.25" customHeight="1">
+      <c r="A42" s="67"/>
+      <c r="B42" t="s" s="68">
+        <v>80</v>
+      </c>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="70"/>
+    </row>
+    <row r="43" ht="37.15" customHeight="1">
+      <c r="A43" t="s" s="7">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s" s="8">
+        <v>82</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" t="s" s="9">
+        <v>83</v>
+      </c>
+      <c r="I43" s="71"/>
+    </row>
+    <row r="44" ht="36.35" customHeight="1">
+      <c r="A44" s="13"/>
+      <c r="B44" t="s" s="21">
+        <v>84</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" t="s" s="15">
+        <v>85</v>
+      </c>
+      <c r="I44" s="72"/>
+    </row>
+    <row r="45" ht="78.35" customHeight="1">
+      <c r="A45" s="13"/>
+      <c r="B45" t="s" s="21">
+        <v>86</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" t="s" s="15">
+        <v>87</v>
+      </c>
+      <c r="I45" s="72"/>
+    </row>
+    <row r="46" ht="22.35" customHeight="1">
+      <c r="A46" s="13"/>
+      <c r="B46" t="s" s="21">
+        <v>88</v>
+      </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="72"/>
+    </row>
+    <row r="47" ht="23.15" customHeight="1">
+      <c r="A47" s="19"/>
+      <c r="B47" t="s" s="48">
+        <v>89</v>
+      </c>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" t="s" s="42">
+        <v>90</v>
+      </c>
+      <c r="I47" s="73"/>
+    </row>
+    <row r="48" ht="20.85" customHeight="1">
+      <c r="A48" s="74"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="10">
+        <f>SUM(G3:G40)</f>
+        <v>499.23</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H25:H27"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A3:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="I3:I39"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A3:A24"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" location="" tooltip="" display="https://m.tb.cn/h.U6B8q10"/>
